--- a/Excel/Seibel2.xlsx
+++ b/Excel/Seibel2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Learnings\C#\SeibelCases\SeibelCaseAnalysis\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data From Siebel" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -187,9 +182,6 @@
     <t>1-30249375251</t>
   </si>
   <si>
-    <t>Information Required for SSP Set Up.</t>
-  </si>
-  <si>
     <t>PACIFIC LIFE RE SERVICES LIMITED</t>
   </si>
   <si>
@@ -224,12 +216,15 @@
   </si>
   <si>
     <t>Summary</t>
+  </si>
+  <si>
+    <t>Information Required for SSP Set Up Sick.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -577,7 +572,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -588,7 +583,7 @@
   <dimension ref="A1:AF106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,7 +638,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -818,13 +813,13 @@
         <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F3" t="s">
         <v>36</v>
       </c>
       <c r="G3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H3" s="2">
         <v>43556.403553240743</v>
@@ -845,46 +840,46 @@
         <v>39</v>
       </c>
       <c r="P3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q3" s="2">
         <v>43580.106041666666</v>
       </c>
       <c r="R3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S3" t="s">
         <v>55</v>
-      </c>
-      <c r="S3" t="s">
-        <v>56</v>
       </c>
       <c r="T3" t="s">
         <v>43</v>
       </c>
       <c r="V3" t="s">
+        <v>56</v>
+      </c>
+      <c r="W3" t="s">
         <v>57</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>58</v>
-      </c>
-      <c r="X3" t="s">
-        <v>59</v>
       </c>
       <c r="Y3" s="2">
         <v>43563.668564814812</v>
       </c>
       <c r="Z3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA3" t="s">
         <v>60</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>61</v>
       </c>
       <c r="AB3" s="2">
         <v>43556.486018518517</v>
       </c>
       <c r="AC3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE3" t="s">
         <v>62</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>63</v>
       </c>
       <c r="AF3" t="s">
         <v>50</v>
